--- a/Egfr-Hh-Wg-Gene-List-FlybaseIDs.xlsx
+++ b/Egfr-Hh-Wg-Gene-List-FlybaseIDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/GitHub/DevelopmentalSignaling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/Git/DevelopmentalSignaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1637B234-41DB-F245-BEAF-8D62C7967D65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD08C737-ADE3-234D-98A2-FDE260B81C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15040" yWindow="980" windowWidth="19620" windowHeight="19820" xr2:uid="{01CD2561-D729-5440-865C-DC5BC55F782E}"/>
+    <workbookView xWindow="9180" yWindow="460" windowWidth="19620" windowHeight="17540" xr2:uid="{01CD2561-D729-5440-865C-DC5BC55F782E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Gene_symbol</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>FBgn0000274</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>FBgn0085432</t>
+  </si>
+  <si>
+    <t>pangolin</t>
   </si>
 </sst>
 </file>
@@ -583,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB7A681-9001-714F-82FD-EBF34035EE9D}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,155 +706,166 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>62</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>64</v>
       </c>
     </row>

--- a/Egfr-Hh-Wg-Gene-List-FlybaseIDs.xlsx
+++ b/Egfr-Hh-Wg-Gene-List-FlybaseIDs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/Git/DevelopmentalSignaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD08C737-ADE3-234D-98A2-FDE260B81C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E683571-AF7E-B542-A267-079AF07707B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9180" yWindow="460" windowWidth="19620" windowHeight="17540" xr2:uid="{01CD2561-D729-5440-865C-DC5BC55F782E}"/>
   </bookViews>
@@ -595,7 +595,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
